--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -42,20 +42,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="E92")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A59" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="payments" var="payment" lastCell="E59")</t>
+          <t>jx:area(lastCell="E46")</t>
         </r>
       </text>
     </comment>
@@ -64,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -168,72 +155,55 @@
     <t>м.п.</t>
   </si>
   <si>
-    <t>Клиент:</t>
-  </si>
-  <si>
-    <t>Принято, 
-руб.</t>
-  </si>
-  <si>
-    <t>К зачислению, 
-руб.</t>
-  </si>
-  <si>
-    <t>ИТОГО:</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t xml:space="preserve">??? </t>
   </si>
   <si>
-    <t>к Договору № ??? от ???</t>
-  </si>
-  <si>
-    <t>${fromTime}</t>
-  </si>
-  <si>
-    <t>${toTime}</t>
-  </si>
-  <si>
-    <t>${payment.amount}</t>
-  </si>
-  <si>
-    <t>${payment.fee}</t>
-  </si>
-  <si>
-    <t>Комиссия, 
-руб.</t>
-  </si>
-  <si>
-    <t>№ платежа</t>
-  </si>
-  <si>
-    <t>${payment.invoice_id}.${payment.id}</t>
-  </si>
-  <si>
-    <t>${dateTimeParser.parse(payment.created_at)}</t>
-  </si>
-  <si>
-    <t>Реестр операций за период с</t>
-  </si>
-  <si>
-    <t>Дата/Время</t>
+    <t>${shopAccounting.fromTime}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.toTime}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.openingBalance}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.closingBalance}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.fundsAcquired}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.feeCharged}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.merchantId}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.merchantName}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.merchantRepresentativePosition} ${shopAccounting.merchantRepresentativeFullName}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.merchantContractCreatedAt}</t>
+  </si>
+  <si>
+    <t>к Договору № ${shopAccounting.merchantContractId} от</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="0000"/>
     <numFmt numFmtId="166" formatCode="#0\,00"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="168" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
+    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -250,12 +220,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -296,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -329,59 +293,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,34 +325,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -448,9 +340,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -465,17 +354,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -484,14 +408,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1695,24 +1613,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="36"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
@@ -1726,13 +1646,13 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4"/>
       <c r="G4"/>
     </row>
@@ -1741,7 +1661,9 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
@@ -1751,24 +1673,19 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>38</v>
+      <c r="D6" s="10"/>
+      <c r="E6" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1776,25 +1693,27 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="17"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
@@ -1808,7 +1727,7 @@
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
@@ -1819,7 +1738,7 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2"/>
@@ -1842,14 +1761,14 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>42</v>
+      <c r="D15" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1867,7 +1786,7 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
@@ -1878,14 +1797,13 @@
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="32">
-        <f>C60</f>
-        <v>0</v>
+      <c r="D18" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -1897,20 +1815,19 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="6"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="32">
-        <f>D60</f>
-        <v>0</v>
+      <c r="D20" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1919,7 +1836,7 @@
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2"/>
@@ -1948,13 +1865,13 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="32">
-        <v>0</v>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
@@ -1963,14 +1880,13 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="32">
-        <f>C60</f>
-        <v>0</v>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -1979,14 +1895,13 @@
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="32">
-        <f>D60</f>
-        <v>0</v>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -1995,12 +1910,12 @@
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="32">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="33">
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -2010,12 +1925,12 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="32">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="33">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -2025,12 +1940,12 @@
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="32">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="33">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2040,13 +1955,13 @@
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="32">
-        <v>0</v>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -2082,7 +1997,7 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2"/>
@@ -2093,7 +2008,7 @@
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="6"/>
@@ -2113,13 +2028,13 @@
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F37"/>
@@ -2131,8 +2046,8 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
@@ -2140,8 +2055,8 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39"/>
       <c r="G39"/>
     </row>
@@ -2166,7 +2081,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -2201,7 +2116,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -2238,19 +2153,11 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="A48" s="14"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>42</v>
-      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="25"/>
       <c r="F48"/>
       <c r="G48"/>
     </row>
@@ -2273,28 +2180,20 @@
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="22"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="12"/>
       <c r="F51"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A52" s="22"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="21"/>
       <c r="F52"/>
       <c r="G52"/>
     </row>
@@ -2302,113 +2201,80 @@
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
       <c r="F53"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>38</v>
-      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="16"/>
       <c r="F54"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
       <c r="F55"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
       <c r="F56"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58"/>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="20" t="e">
-        <f>C59-D59</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
       <c r="F59"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="19">
-        <f>SUM(C59)</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="19">
-        <f>SUM(D59)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="20" t="e">
-        <f>SUM(E59)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A60" s="22"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="29"/>
       <c r="F60"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
       <c r="F61"/>
       <c r="G61"/>
     </row>
@@ -2539,7 +2405,6 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
@@ -2548,8 +2413,9 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866099999999999" right="0.31496099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -155,15 +155,6 @@
     <t>м.п.</t>
   </si>
   <si>
-    <t xml:space="preserve">??? </t>
-  </si>
-  <si>
-    <t>${shopAccounting.fromTime}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.toTime}</t>
-  </si>
-  <si>
     <t>${shopAccounting.openingBalance}</t>
   </si>
   <si>
@@ -176,19 +167,28 @@
     <t>${shopAccounting.feeCharged}</t>
   </si>
   <si>
-    <t>${shopAccounting.merchantId}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.merchantName}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.merchantRepresentativePosition} ${shopAccounting.merchantRepresentativeFullName}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.merchantContractCreatedAt}</t>
-  </si>
-  <si>
-    <t>к Договору № ${shopAccounting.merchantContractId} от</t>
+    <t>${toTime}</t>
+  </si>
+  <si>
+    <t>${fromTime}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantContractCreatedAt}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantName}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantId}</t>
+  </si>
+  <si>
+    <t>к Договору № ${partyRepresentation.merchantContractId} от</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantRepresentativePosition} ${partyRepresentation.merchantRepresentativeFullName}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantRepresentativeDocument}</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1625,12 +1625,12 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
       <c r="D2" s="37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2"/>
@@ -1675,7 +1675,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
       <c r="E6" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1694,7 +1694,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1762,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1803,7 +1803,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -1827,7 +1827,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1871,7 +1871,7 @@
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
@@ -1886,7 +1886,7 @@
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -1901,7 +1901,7 @@
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -1961,7 +1961,7 @@
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -2081,7 +2081,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -2116,7 +2116,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>${partyRepresentation.merchantRepresentativeDocument}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.fundsPaidOut}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.fundsRefunded}</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1607,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1915,8 +1921,8 @@
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="33">
-        <v>0</v>
+      <c r="D27" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -1945,8 +1951,8 @@
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="33">
-        <v>0</v>
+      <c r="D29" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>${partyRepresentation.merchantRepresentativeDocument}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.fundsPaidOut}</t>
+  </si>
+  <si>
+    <t>${shopAccounting.fundsRefunded}</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1915,8 +1921,8 @@
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="33">
-        <v>0</v>
+      <c r="D27" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -1945,8 +1951,8 @@
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="33">
-        <v>0</v>
+      <c r="D29" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -201,15 +201,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="165" formatCode="0000"/>
-    <numFmt numFmtId="166" formatCode="#0\,00"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
-    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -220,12 +217,14 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -237,15 +236,9 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -303,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,18 +324,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -357,37 +340,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -399,9 +357,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +371,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,65 +1562,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:DZ234"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="255" width="11.5" customWidth="1"/>
+    <col min="6" max="242" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+    </row>
+    <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1670,403 +1618,460 @@
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    </row>
+    <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+    </row>
+    <row r="8" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="17"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="13"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="13" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="6"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="33" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="33" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="33" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="33">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="20">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="33" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="33" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="7"/>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="7"/>
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="7"/>
-      <c r="F33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="7"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2076,10 +2081,8 @@
       <c r="E40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -2089,19 +2092,15 @@
       <c r="E41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8"/>
-      <c r="F42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -2111,10 +2110,8 @@
       <c r="E43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -2124,19 +2121,15 @@
       <c r="E44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8"/>
-      <c r="F45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -2146,267 +2139,1322 @@
       <c r="E46" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="25"/>
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="12"/>
-      <c r="F51"/>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="21"/>
-      <c r="F52"/>
-      <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53"/>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="16"/>
-      <c r="F54"/>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55"/>
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56"/>
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59"/>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="29"/>
-      <c r="F60"/>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61"/>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F62"/>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F63"/>
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F64"/>
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F65"/>
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F67"/>
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69"/>
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="6:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F71"/>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F72"/>
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F73"/>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F74"/>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F75"/>
-      <c r="G75"/>
-    </row>
-    <row r="76" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F76"/>
-      <c r="G76"/>
-    </row>
-    <row r="77" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F77"/>
-      <c r="G77"/>
-    </row>
-    <row r="78" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F78"/>
-      <c r="G78"/>
-    </row>
-    <row r="79" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F79"/>
-      <c r="G79"/>
-    </row>
-    <row r="80" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F80"/>
-      <c r="G80"/>
-    </row>
-    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F81"/>
-      <c r="G81"/>
-    </row>
-    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F82"/>
-      <c r="G82"/>
-    </row>
-    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F83"/>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F84"/>
-      <c r="G84"/>
-    </row>
-    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F85"/>
-      <c r="G85"/>
-    </row>
-    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F86"/>
-      <c r="G86"/>
-    </row>
-    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F87"/>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F88"/>
-      <c r="G88"/>
-    </row>
-    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F89"/>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F90"/>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F91"/>
-      <c r="G91"/>
-    </row>
-    <row r="92" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F92"/>
-      <c r="G92"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201"/>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203"/>
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204"/>
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205"/>
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206"/>
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207"/>
+      <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208"/>
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209"/>
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210"/>
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211"/>
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212"/>
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213"/>
+      <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214"/>
+      <c r="B214"/>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215"/>
+      <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216"/>
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217"/>
+      <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218"/>
+      <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219"/>
+      <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220"/>
+      <c r="B220"/>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222"/>
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223"/>
+      <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224"/>
+      <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225"/>
+      <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226"/>
+      <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227"/>
+      <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228"/>
+      <c r="B228"/>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229"/>
+      <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230"/>
+      <c r="B230"/>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231"/>
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232"/>
+      <c r="B232"/>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233"/>
+      <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234"/>
+      <c r="B234"/>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2422,7 +3470,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.70866099999999999" right="0.31496099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -173,9 +173,6 @@
     <t>${fromTime}</t>
   </si>
   <si>
-    <t>${partyRepresentation.merchantContractCreatedAt}</t>
-  </si>
-  <si>
     <t>${partyRepresentation.merchantName}</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>${shopAccounting.fundsRefunded}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantContractSignedAt}</t>
   </si>
 </sst>
 </file>
@@ -359,6 +359,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -371,9 +374,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1575,22 +1575,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>40</v>
+      <c r="A2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="23"/>
     </row>
@@ -1602,13 +1602,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1627,7 +1627,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
       <c r="E6" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,7 +1769,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,11 +1908,11 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="20" t="s">
         <v>34</v>
       </c>
@@ -1921,11 +1921,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="20" t="s">
         <v>36</v>
       </c>
@@ -1934,11 +1934,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="20" t="s">
         <v>37</v>
       </c>
@@ -1947,24 +1947,24 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="20">
         <v>0</v>
       </c>
@@ -1973,24 +1973,24 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="20" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,7 +2119,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -201,9 +201,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -340,12 +339,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -374,6 +367,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,7 +1564,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1575,24 +1574,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1602,13 +1601,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1626,7 +1625,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1783,7 +1782,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,13 +1821,13 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1857,7 +1856,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1868,7 +1867,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,7 +1876,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1908,12 +1907,12 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1921,12 +1920,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1934,12 +1933,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="20" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1947,12 +1946,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="20" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -1960,12 +1959,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="20">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="18">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1973,12 +1972,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="20" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -1986,12 +1985,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="20" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="5" t="s">

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>${partyRepresentation.merchantRepresentativePosition} ${partyRepresentation.merchantRepresentativeFullName}</t>
-  </si>
-  <si>
-    <t>${partyRepresentation.merchantRepresentativeDocument}</t>
   </si>
   <si>
     <t>${shopAccounting.fundsPaidOut}</t>
@@ -203,7 +200,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -352,8 +349,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -367,12 +370,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,7 +1561,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1574,22 +1571,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="21"/>
     </row>
@@ -1601,13 +1598,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1821,13 +1818,13 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1907,11 +1904,11 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="18" t="s">
         <v>34</v>
       </c>
@@ -1920,11 +1917,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="18" t="s">
         <v>36</v>
       </c>
@@ -1933,11 +1930,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="18" t="s">
         <v>37</v>
       </c>
@@ -1946,24 +1943,24 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="18">
         <v>0</v>
       </c>
@@ -1972,24 +1969,24 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="18" t="s">
         <v>35</v>
       </c>
@@ -2118,7 +2115,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -143,9 +143,6 @@
     <t>________________________</t>
   </si>
   <si>
-    <t>Председатель Правления Бурлаков К.В.</t>
-  </si>
-  <si>
     <t>действует на основании</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>к Договору № ${partyRepresentation.merchantContractId} от</t>
   </si>
   <si>
-    <t>${partyRepresentation.merchantRepresentativePosition} ${partyRepresentation.merchantRepresentativeFullName}</t>
-  </si>
-  <si>
     <t>${shopAccounting.fundsPaidOut}</t>
   </si>
   <si>
@@ -192,6 +186,18 @@
   </si>
   <si>
     <t>${partyRepresentation.merchantContractSignedAt}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantRepresentativePosition}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantRepresentativeFullName}</t>
+  </si>
+  <si>
+    <t>Председатель Правления</t>
+  </si>
+  <si>
+    <t>Бурлаков К.В.</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1567,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1581,12 +1587,12 @@
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="21"/>
     </row>
@@ -1623,7 +1629,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
       <c r="E6" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,7 +1771,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,13 +1825,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1854,7 +1860,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -1874,7 +1880,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1910,7 +1916,7 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
@@ -1923,7 +1929,7 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -1936,7 +1942,7 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -1949,7 +1955,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -1975,7 +1981,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
@@ -1988,7 +1994,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -2080,42 +2086,46 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,13 +2137,13 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -152,61 +152,60 @@
     <t>м.п.</t>
   </si>
   <si>
-    <t>${shopAccounting.openingBalance}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.closingBalance}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.fundsAcquired}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.feeCharged}</t>
-  </si>
-  <si>
-    <t>${toTime}</t>
-  </si>
-  <si>
-    <t>${fromTime}</t>
-  </si>
-  <si>
-    <t>${partyRepresentation.merchantName}</t>
-  </si>
-  <si>
-    <t>${partyRepresentation.merchantId}</t>
-  </si>
-  <si>
-    <t>к Договору № ${partyRepresentation.merchantContractId} от</t>
-  </si>
-  <si>
-    <t>${shopAccounting.fundsPaidOut}</t>
-  </si>
-  <si>
-    <t>${shopAccounting.fundsRefunded}</t>
-  </si>
-  <si>
-    <t>${partyRepresentation.merchantContractSignedAt}</t>
-  </si>
-  <si>
-    <t>${partyRepresentation.merchantRepresentativePosition}</t>
-  </si>
-  <si>
-    <t>${partyRepresentation.merchantRepresentativeFullName}</t>
-  </si>
-  <si>
     <t>Председатель Правления</t>
   </si>
   <si>
     <t>Бурлаков К.В.</t>
+  </si>
+  <si>
+    <t>${registered_name}</t>
+  </si>
+  <si>
+    <t>${party_id}</t>
+  </si>
+  <si>
+    <t>${from_time}</t>
+  </si>
+  <si>
+    <t>${to_time}</t>
+  </si>
+  <si>
+    <t>${funds_acquired}</t>
+  </si>
+  <si>
+    <t>${fee_charged}</t>
+  </si>
+  <si>
+    <t>${opening_balance}</t>
+  </si>
+  <si>
+    <t>${funds_paid_out}</t>
+  </si>
+  <si>
+    <t>${funds_refunded}</t>
+  </si>
+  <si>
+    <t>${closing_balance}</t>
+  </si>
+  <si>
+    <t>${representative_full_name}</t>
+  </si>
+  <si>
+    <t>${representative_position}</t>
+  </si>
+  <si>
+    <t>к Договору № ${legal_agreement_id} от</t>
+  </si>
+  <si>
+    <t>${legal_agreement_signed_at}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -355,15 +354,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -376,6 +366,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,7 +1566,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1577,22 +1576,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="22" t="s">
-        <v>44</v>
+      <c r="A2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="21"/>
     </row>
@@ -1604,13 +1603,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1629,7 +1628,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
       <c r="E6" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,7 +1770,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,14 +1823,14 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>38</v>
+      <c r="B15" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>37</v>
+      <c r="D15" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1860,7 +1859,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -1880,7 +1879,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1910,50 +1909,50 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="18" t="s">
         <v>42</v>
       </c>
@@ -1962,11 +1961,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="18">
         <v>0</v>
       </c>
@@ -1975,11 +1974,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="18" t="s">
         <v>43</v>
       </c>
@@ -1988,13 +1987,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -2086,24 +2085,24 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>${legal_agreement_signed_at}</t>
+  </si>
+  <si>
+    <t>Идентификатор магазина:</t>
+  </si>
+  <si>
+    <t>${shop_id}</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +361,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,14 +382,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,7 +1575,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1576,21 +1585,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="21"/>
@@ -1603,13 +1612,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1777,15 +1786,19 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -1823,13 +1836,13 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1909,11 +1922,11 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="18" t="s">
         <v>41</v>
       </c>
@@ -1922,11 +1935,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="18" t="s">
         <v>39</v>
       </c>
@@ -1935,11 +1948,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="18" t="s">
         <v>40</v>
       </c>
@@ -1948,11 +1961,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="18" t="s">
         <v>42</v>
       </c>
@@ -1961,11 +1974,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="18">
         <v>0</v>
       </c>
@@ -1974,11 +1987,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="18" t="s">
         <v>43</v>
       </c>
@@ -1987,11 +2000,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
@@ -3462,7 +3475,7 @@
       <c r="E234"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A24:C24"/>
@@ -3473,6 +3486,7 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkonepiu/Projects/reporter/src/main/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inalarsanukaev/git/reporter/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924D5C9-7AC5-B34F-95CD-5A549C0B747F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,18 +28,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -152,12 +153,6 @@
     <t>м.п.</t>
   </si>
   <si>
-    <t>Председатель Правления</t>
-  </si>
-  <si>
-    <t>Бурлаков К.В.</t>
-  </si>
-  <si>
     <t>${registered_name}</t>
   </si>
   <si>
@@ -204,12 +199,21 @@
   </si>
   <si>
     <t>${shop_id}</t>
+  </si>
+  <si>
+    <t>Заместитель Председателя Правления</t>
+  </si>
+  <si>
+    <t>Лебедева Л.В.</t>
+  </si>
+  <si>
+    <t>Доверенность № 13 от 21.02.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
   </numFmts>
@@ -234,13 +238,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -248,6 +245,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -363,10 +367,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,7 +391,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -462,6 +466,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1571,11 +1578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DZ234"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1595,12 +1602,12 @@
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="21"/>
     </row>
@@ -1637,7 +1644,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
       <c r="E6" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1779,7 +1786,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,7 +1794,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="30"/>
     </row>
@@ -1797,7 +1804,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="19"/>
       <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1837,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1872,7 +1879,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -1892,7 +1899,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1928,7 +1935,7 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
@@ -1941,7 +1948,7 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -1954,7 +1961,7 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -1967,7 +1974,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -1993,7 +2000,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
@@ -2006,7 +2013,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -2098,24 +2105,24 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2131,7 +2138,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3488,7 +3495,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D9:E9"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inalarsanukaev/git/reporter/src/main/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkonepiu/Projects/reporter/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924D5C9-7AC5-B34F-95CD-5A549C0B747F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CECAEF5-5C33-E746-8521-AE4E1D68E236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,13 +201,13 @@
     <t>${shop_id}</t>
   </si>
   <si>
-    <t>Заместитель Председателя Правления</t>
-  </si>
-  <si>
-    <t>Лебедева Л.В.</t>
-  </si>
-  <si>
     <t>Доверенность № 13 от 21.02.2020</t>
+  </si>
+  <si>
+    <t>Губайдулин Т.Ф.</t>
+  </si>
+  <si>
+    <t>Председатель Правления</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkonepiu/Projects/reporter/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CECAEF5-5C33-E746-8521-AE4E1D68E236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F084B5F0-130A-F049-A20F-282F578A2E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -144,9 +144,6 @@
     <t>________________________</t>
   </si>
   <si>
-    <t>действует на основании</t>
-  </si>
-  <si>
     <t>Устав</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>${closing_balance}</t>
   </si>
   <si>
-    <t>${representative_full_name}</t>
-  </si>
-  <si>
     <t>${representative_position}</t>
   </si>
   <si>
@@ -201,13 +195,19 @@
     <t>${shop_id}</t>
   </si>
   <si>
-    <t>Доверенность № 13 от 21.02.2020</t>
-  </si>
-  <si>
-    <t>Губайдулин Т.Ф.</t>
-  </si>
-  <si>
     <t>Председатель Правления</t>
+  </si>
+  <si>
+    <t>действующий на основании Устава</t>
+  </si>
+  <si>
+    <t>Губайдулин Т.Ф.,</t>
+  </si>
+  <si>
+    <t>${representative_full_name},</t>
+  </si>
+  <si>
+    <t>действующий на основании</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -252,6 +252,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +378,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1581,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DZ234"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1592,22 +1604,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="21"/>
     </row>
@@ -1619,13 +1631,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1644,7 +1656,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
       <c r="E6" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,25 +1798,25 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="30"/>
+      <c r="D9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="13" t="s">
-        <v>48</v>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1879,7 +1891,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -1899,7 +1911,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -1929,63 +1941,63 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="18">
         <v>0</v>
       </c>
@@ -1994,26 +2006,26 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -2105,46 +2117,44 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
+      <c r="A42" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>30</v>
+      <c r="A43" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2156,13 +2166,13 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkonepiu/Projects/reporter/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F084B5F0-130A-F049-A20F-282F578A2E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBAF213-BFA6-F345-9368-EB903AB3195D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Акт об оказании услуг</t>
   </si>
@@ -195,19 +195,22 @@
     <t>${shop_id}</t>
   </si>
   <si>
-    <t>Председатель Правления</t>
-  </si>
-  <si>
-    <t>действующий на основании Устава</t>
-  </si>
-  <si>
-    <t>Губайдулин Т.Ф.,</t>
-  </si>
-  <si>
     <t>${representative_full_name},</t>
   </si>
   <si>
     <t>действующий на основании</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер</t>
+  </si>
+  <si>
+    <t>Кахно А.В.,</t>
+  </si>
+  <si>
+    <t>действующая на основании</t>
+  </si>
+  <si>
+    <t>Доверенности N 40 от 08.09.2020</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DZ234"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2128,28 +2131,30 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkonepiu/Projects/reporter/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBAF213-BFA6-F345-9368-EB903AB3195D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95FCEC-5918-E54F-85F2-69CAE68A9083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
     <t>действующая на основании</t>
   </si>
   <si>
-    <t>Доверенности N 40 от 08.09.2020</t>
+    <t>Доверенности № 49 от 15.09.2020</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DZ234"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkonepiu/Projects/reporter/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95FCEC-5918-E54F-85F2-69CAE68A9083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06495F74-7FBA-6149-A7A8-B6F6D4B0E349}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
     <t>действующая на основании</t>
   </si>
   <si>
-    <t>Доверенности № 49 от 15.09.2020</t>
+    <t>Доверенности № 40 от 15.09.2020</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DZ234"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
